--- a/biology/Zoologie/Amolops_daorum/Amolops_daorum.xlsx
+++ b/biology/Zoologie/Amolops_daorum/Amolops_daorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amolops daorum est une espèce d'amphibiens de la famille des Ranidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amolops daorum est une espèce d'amphibiens de la famille des Ranidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 dans le Nord du Viêt Nam dans la province de Lào Cai ;
 à Hong Kong ;
 dans le Nord du Laos dans la province de Houaphan.</t>
@@ -544,9 +558,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été relevé de sa synonymie avec Amolops mengyangensis par Stuart, Bain, Phimmachak et Spence en 2010[2] où il avait été placé par Ohler en 2007[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été relevé de sa synonymie avec Amolops mengyangensis par Stuart, Bain, Phimmachak et Spence en 2010 où il avait été placé par Ohler en 2007.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur des Daos[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur des Daos.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bain, Lathrop, Murphy, Orlov &amp; Ho, 2003 : Cryptic species of a cascade frog from Southeast Asia: taxonomic revisions and descriptions of six new species. American Museum Novitates, no 3417, p. 1-60 (texte intégral).</t>
         </is>
